--- a/CNC/BOM.xlsx
+++ b/CNC/BOM.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decla\Desktop\Vaulted_Files\CNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B83662-B9B0-4971-82DE-5A698099479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB246A5B-C897-4F0F-B844-16DEC984DDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="6690" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="links" sheetId="2" r:id="rId1"/>
-    <sheet name="Parts" sheetId="1" r:id="rId2"/>
+    <sheet name="Parts For Design1" sheetId="1" r:id="rId2"/>
+    <sheet name="Parts for Design2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Part:</t>
   </si>
@@ -72,9 +73,6 @@
     <t>https://www.amazon.ca/Linear-SBR16-500MM-SBR16UU-Bearing-Machine/dp/B09VC46TBL/ref=sr_1_6?crid=1969TOFQ2W05T&amp;dib=eyJ2IjoiMSJ9.Qf9l7rIHivRNP7ZSwKm8DoAbCS3j5iZyT_d7DIXuVswWVxLayVJDvnf38AHChfa9MO4Jc3LcFIuEljMxRT-1nxUkSmaabu6qCn9VhGNW-0yYw-BxwvsCyaRB4jihs0X487jy7R-1PvWc4gisC6zUwhZ4bJiLkaazGyNC8DD2EKvi4bJ85B4OEh6u6hBstDTnaHbQs-W7510yjsqOumFQT8JCbED92wxw9kiYrX_ws9qx_or30XPctSCo3kFjQNeLOYguyYZnEXtX9WlvETKJ4inK8U4r9FwxqFiq12aQuik.lKfVPSPwzlsv-avo1MfoLROIgP1s0PWqYmLneti1Wns&amp;dib_tag=se&amp;keywords=500%2Bmm%2Blinear%2Brail&amp;qid=1728803738&amp;s=industrial&amp;sprefix=500%2Bmm%2Blinear%2Brail%2B%2Cindustrial%2C111&amp;sr=1-6&amp;th=1</t>
   </si>
   <si>
-    <t>16mm x 500mm Linear Rods FS SBR12</t>
-  </si>
-  <si>
     <t>20mm x 800mm Linear Rods x2 FS SBR20 w/ SBR20UU Carts x4</t>
   </si>
   <si>
@@ -115,6 +113,24 @@
   </si>
   <si>
     <t>https://www.amazon.com/ANWOK-Ballscrew-Machining-Antibacklash-Standard/dp/B09BQSPDD4/ref=sr_1_1?crid=1JSJNN8PETEQ&amp;dib=eyJ2IjoiMSJ9.uX004AekeAXpHbWkddO9pSiH01y-w5KO6-68_SMdW6YYuUpzkFa0SLfLIgSFIbbLdg9-6ks0WxiPOqmtVZIhOVmVqyu9CsmHZG9Rvs-XmDLhOORD0aj8QKgvwxnmcoSjQHAjiMwlcVd2-3K4w97v4z4rgj_gIuVYst0yKgaDk6bBibyUm1rCLP_TPIfEylKIPj0tuJFMro5esOe-XeQden36S_CSmp7DXcZYjyPpUQk.MIAKlV4SOJoB-meQq5O3st_WyLPfzQhalIbUvmDkHWA&amp;dib_tag=se&amp;keywords=800mm%2Bball%2Bscrew&amp;qid=1728768919&amp;sprefix=800mm%2Bball%2Bscrrew%2Caps%2C121&amp;sr=8-1&amp;th=1</t>
+  </si>
+  <si>
+    <t>16mm x 500mm Linear Rods x2 FS SBR16 w/ SBR16UU Carts x4</t>
+  </si>
+  <si>
+    <t>or 54.02 for 600mm</t>
+  </si>
+  <si>
+    <t>500W Spindle w/ 52mm Clamp w/ Controller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B0814SQMMS/ref=sspa_dk_detail_3?psc=1&amp;pd_rd_i=B0814SQMMS&amp;pd_rd_w=ri2Q6&amp;content-id=amzn1.sym.99226bee-397f-4807-9350-d703b292dd4f&amp;pf_rd_p=99226bee-397f-4807-9350-d703b292dd4f&amp;pf_rd_r=CCZSET7EPMR9P92MTRDD&amp;pd_rd_wg=XDfgX&amp;pd_rd_r=a5b610bc-2c1f-4546-916f-cda73870f121&amp;s=industrial&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWwy</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>or 73 for 4 x 800 of 3030</t>
   </si>
 </sst>
 </file>
@@ -451,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A4E68D-5498-4F75-8A49-0E9CB72E5FFB}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,27 +510,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -527,6 +548,7 @@
     <hyperlink ref="A3" r:id="rId6" xr:uid="{51A3866B-567A-46C1-825C-7C499D3E31D5}"/>
     <hyperlink ref="A11" r:id="rId7" display="https://www.amazon.com/ANWOK-Ballscrew-Machining-Antibacklash-Standard/dp/B09BQSPDD4/ref=sr_1_1?crid=1JSJNN8PETEQ&amp;dib=eyJ2IjoiMSJ9.uX004AekeAXpHbWkddO9pSiH01y-w5KO6-68_SMdW6YYuUpzkFa0SLfLIgSFIbbLdg9-6ks0WxiPOqmtVZIhOVmVqyu9CsmHZG9Rvs-XmDLhOORD0aj8QKgvwxnmcoSjQHAjiMwlcVd2-3K4w97v4z4rgj_gIuVYst0yKgaDk6bBibyUm1rCLP_TPIfEylKIPj0tuJFMro5esOe-XeQden36S_CSmp7DXcZYjyPpUQk.MIAKlV4SOJoB-meQq5O3st_WyLPfzQhalIbUvmDkHWA&amp;dib_tag=se&amp;keywords=800mm%2Bball%2Bscrew&amp;qid=1728768919&amp;sprefix=800mm%2Bball%2Bscrrew%2Caps%2C121&amp;sr=8-1&amp;th=1" xr:uid="{FF987EDB-3A57-4414-88E5-06904D3EA589}"/>
     <hyperlink ref="A10" r:id="rId8" xr:uid="{70817C19-D158-4713-9F91-B3D93B00494F}"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.amazon.ca/dp/B0814SQMMS/ref=sspa_dk_detail_3?psc=1&amp;pd_rd_i=B0814SQMMS&amp;pd_rd_w=ri2Q6&amp;content-id=amzn1.sym.99226bee-397f-4807-9350-d703b292dd4f&amp;pf_rd_p=99226bee-397f-4807-9350-d703b292dd4f&amp;pf_rd_r=CCZSET7EPMR9P92MTRDD&amp;pd_rd_wg=XDfgX&amp;pd_rd_r=a5b610bc-2c1f-4546-916f-cda73870f121&amp;s=industrial&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWwy" xr:uid="{1F396961-FBFA-407D-BAE2-CA9E5C993BFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -534,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,6 +567,7 @@
     <col min="1" max="1" width="52.7265625" customWidth="1"/>
     <col min="2" max="2" width="56.36328125" customWidth="1"/>
     <col min="3" max="3" width="52.7265625" customWidth="1"/>
+    <col min="4" max="4" width="45.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -556,7 +579,7 @@
       </c>
       <c r="C1" s="1" t="str">
         <f xml:space="preserve"> "PRICE: " &amp; SUM(C2:C40)</f>
-        <v>PRICE: 544.25</v>
+        <v>PRICE: 519.25</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -579,12 +602,12 @@
         <v>LINK</v>
       </c>
       <c r="C2">
-        <v>49.02</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>HYPERLINK("#'links'!A9","LINK 500mm      ")&amp;HYPERLINK("#'links'!A11","LINK 600mm")</f>
@@ -608,7 +631,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>HYPERLINK("#'links'!A6", "LINK")</f>
@@ -617,10 +640,13 @@
       <c r="C5">
         <v>44.02</v>
       </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>HYPERLINK("#'links'!A1", "LINK")</f>
@@ -638,13 +664,16 @@
         <f>HYPERLINK("#'links'!A4","LINK    ")&amp;HYPERLINK("#'links'!A5","LINK")</f>
         <v>LINK    LINK</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>HYPERLINK("#'links'!A7", "LINK")</f>
@@ -656,15 +685,15 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>HYPERLINK("#'links'!A8", "LINK")</f>
@@ -673,22 +702,25 @@
       <c r="C10">
         <v>87</v>
       </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>HYPERLINK("#'links'!A10", "LINK")</f>
         <v>LINK</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>16.190000000000001</v>
@@ -696,11 +728,195 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>HYPERLINK("#'links'!A12", "LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="C14">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BE4827-E627-42EC-8E5C-3EA93AAED3B5}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.26953125" customWidth="1"/>
+    <col min="2" max="2" width="52.26953125" customWidth="1"/>
+    <col min="3" max="3" width="63.453125" customWidth="1"/>
+    <col min="4" max="4" width="94.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f xml:space="preserve"> "PRICE: " &amp; SUM(C2:C40)</f>
+        <v>PRICE: 480.25</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>HYPERLINK("#'links'!A2", "LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="C2">
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>HYPERLINK("#'links'!A3", "LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>HYPERLINK("#'links'!A6", "LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="C5">
+        <v>44.02</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>HYPERLINK("#'links'!A1", "LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="C6">
+        <v>55.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>HYPERLINK("#'links'!A4","LINK    ")&amp;HYPERLINK("#'links'!A5","LINK")</f>
+        <v>LINK    LINK</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>HYPERLINK("#'links'!A7", "LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="C8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>HYPERLINK("#'links'!A8", "LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="C10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>HYPERLINK("#'links'!A10", "LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>HYPERLINK("#'links'!A12", "LINK")</f>
+        <v>LINK</v>
+      </c>
+      <c r="C14">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>